--- a/extractedJobData.xlsx
+++ b/extractedJobData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adriancondrea\Desktop\RPA\Hipo-UI-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC50105-50FC-4B65-9271-FDA98EC437A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEDD04-925E-4C0C-BBD5-8D0E96D3A551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
+    <workbookView minimized="1" xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t>Titlu Job</t>
   </si>
@@ -52,28 +52,483 @@
     <t>Aplicat</t>
   </si>
   <si>
-    <t>Junior JavaScript Developer (Cluj Hub)</t>
-  </si>
-  <si>
-    <t>Cognizant Softvision</t>
+    <t>Cluj Napoca</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>TELEMATICS Engineer</t>
+  </si>
+  <si>
+    <t>Wipro Center of Excellence</t>
+  </si>
+  <si>
+    <t>Timisoara
+Ilfov
+BUCURESTI</t>
+  </si>
+  <si>
+    <t>Software Engineer with QNX</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Ilfov
+Timisoara</t>
+  </si>
+  <si>
+    <t>Software Architect with AUTOSAR</t>
+  </si>
+  <si>
+    <t>Senior Software Developer with AUTOSAR</t>
+  </si>
+  <si>
+    <t>Cybersecurity Communication Specialist</t>
+  </si>
+  <si>
+    <t>Network &amp; Diagnosis Software Engineer</t>
+  </si>
+  <si>
+    <t>Junior Software Engineer</t>
+  </si>
+  <si>
+    <t>HIL Specialist with Automation</t>
+  </si>
+  <si>
+    <t>Requirement Engineer</t>
+  </si>
+  <si>
+    <t>SW Functional Safety Engineer</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>Ascensos Contact Centre</t>
+  </si>
+  <si>
+    <t>BUCURESTI</t>
+  </si>
+  <si>
+    <t>Director economic</t>
+  </si>
+  <si>
+    <t>Dr. Pendl &amp; Dr. Piswanger Romania</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Popesti Leordeni
+Job national</t>
+  </si>
+  <si>
+    <t>Community Intern</t>
+  </si>
+  <si>
+    <t>L'Oreal Romania</t>
+  </si>
+  <si>
+    <t>Marketing Intern Skincare</t>
+  </si>
+  <si>
+    <t>Asistent manager Customer Support &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Bitcoin Romania</t>
+  </si>
+  <si>
+    <t>Operations Officer</t>
+  </si>
+  <si>
+    <t>TARA Interactive</t>
+  </si>
+  <si>
+    <t>Laboratorul Santomar - Regina Maria Cluj angajeaza registrator medical laborator</t>
+  </si>
+  <si>
+    <t>Regina Maria</t>
   </si>
   <si>
     <t>Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>Asistent Constructii</t>
+  </si>
+  <si>
+    <t>PENNY.</t>
+  </si>
+  <si>
+    <t>Marketing Intern VICHY</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Auditor Junior</t>
+  </si>
+  <si>
+    <t>Rezerva-ti locul la event-ul Continental Technical Show 2021</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t>Bacau
+Botosani
+Braila</t>
+  </si>
+  <si>
+    <t>Java Academy</t>
+  </si>
+  <si>
+    <t>Playtika</t>
+  </si>
+  <si>
+    <t>Sales Planning Analyst with Salesforce with German, Engineering Center Cluj</t>
+  </si>
+  <si>
+    <t>Bosch Romania</t>
+  </si>
+  <si>
+    <t>Sports analysts wanted</t>
+  </si>
+  <si>
+    <t>KAMBI</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer</t>
+  </si>
+  <si>
+    <t>Veeam Software</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Job national</t>
+  </si>
+  <si>
+    <t>Senior PMO Analyst</t>
+  </si>
+  <si>
+    <t>Allianz Services</t>
+  </si>
+  <si>
+    <t>Manager Trainee McDonald’s Timisoara (5 posturi)</t>
+  </si>
+  <si>
+    <t>McDonald's Romania</t>
+  </si>
+  <si>
+    <t>Resita
+Timisoara
+Lugoj</t>
+  </si>
+  <si>
+    <t>Manager Trainee McDonald’s Arad (5 posturi)</t>
+  </si>
+  <si>
+    <t>Arad
+Ineu
+Nadlac</t>
+  </si>
+  <si>
+    <t>Fii la curent cu noutatile Angajatori de TOP Business 21 martie – 21 aprilie 2022. Inscrie-te acum!</t>
+  </si>
+  <si>
+    <t>Inscriere Angajatori de TOP</t>
+  </si>
+  <si>
+    <t>Job national</t>
+  </si>
+  <si>
+    <t>Fii la curent cu noutatile Angajatori de TOP Tech 28 martie – 1 mai 2022. Inscrie-te acum!</t>
+  </si>
+  <si>
+    <t>Direct Sales Representative - Bucuresti</t>
+  </si>
+  <si>
+    <t>OTP Advisors</t>
+  </si>
+  <si>
+    <t>Actuarial Specialist Non-life Projects team</t>
+  </si>
+  <si>
+    <t>Sales Internship (online, full-time flexibil)</t>
+  </si>
+  <si>
+    <t>Catalyst Solutions</t>
+  </si>
+  <si>
+    <t>Inside Sales Associate (Various Languages)</t>
+  </si>
+  <si>
+    <t>Reprezentant relatii cu clientii</t>
+  </si>
+  <si>
+    <t>DevOps Senior Engineer</t>
+  </si>
+  <si>
+    <t>K2View</t>
+  </si>
+  <si>
+    <t>DevOps JUNIOR Engineer</t>
+  </si>
+  <si>
+    <t>Shift Manager Technical Support</t>
+  </si>
+  <si>
+    <t>Sales Lab (free online, practical training for students)</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Brasov
+Cluj Napoca</t>
+  </si>
+  <si>
+    <t>Entry Level Sales Support Executive - perioada determinata</t>
+  </si>
+  <si>
+    <t>Cargus S.R.L</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Ilfov
+Voluntari</t>
+  </si>
+  <si>
+    <t>IT Help Desk Consultant 1st level (German) Remote Job</t>
+  </si>
+  <si>
+    <t>Bosch Service Solutions SRL</t>
+  </si>
+  <si>
+    <t>Brasov
 Sibiu
-Targu Mures
+Timisoara
 Job national</t>
   </si>
   <si>
-    <t>Web Developer-Cluj-Napoca</t>
-  </si>
-  <si>
-    <t>SalesConsulting</t>
-  </si>
-  <si>
-    <t>Cluj Napoca</t>
-  </si>
-  <si>
-    <t>15.12.2021</t>
+    <t>Coordonator departament customer support</t>
+  </si>
+  <si>
+    <t>Java Software Developer</t>
+  </si>
+  <si>
+    <t>Internship - Financial / Administrative Controller</t>
+  </si>
+  <si>
+    <t>Societe Generale Global Solution Centre</t>
+  </si>
+  <si>
+    <t>Sr. Security Researcher ( Remote, ROU)</t>
+  </si>
+  <si>
+    <t>CROWDSTRIKE</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Brasov
+Timisoara</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer Data (Ingestion Team) – Romania (Remote)</t>
+  </si>
+  <si>
+    <t>Threat Researcher Intern - Autumn 2021 (Remote)</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca</t>
+  </si>
+  <si>
+    <t>Sr. Backend Software Engineer, IOT Security | Romania (Remote)</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Timisoara</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (Cloud) – Platform, Europe (Remote)</t>
+  </si>
+  <si>
+    <t>Windows Vulnerability Analysis Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>Sr. Intelligence Analyst (Remote)</t>
+  </si>
+  <si>
+    <t>Sr. Security Researcher (Remote)</t>
+  </si>
+  <si>
+    <t>Security Researcher (Remote)</t>
+  </si>
+  <si>
+    <t>DevOps Database Engineer, Data Services | Romania or Germany (Remote)</t>
+  </si>
+  <si>
+    <t>Sr. DevOps Engineer (Elasticsearch/Cassandra/Kafka)</t>
+  </si>
+  <si>
+    <t>Sr. Java Software Engineer, Sandbox | Romania or Ireland (Remote)</t>
+  </si>
+  <si>
+    <t>Cloud Engineer, Mobile team (Java/Python/Golang), Romania (Remote)</t>
+  </si>
+  <si>
+    <t>Key Account Manager</t>
+  </si>
+  <si>
+    <t>APT Prohuman</t>
+  </si>
+  <si>
+    <t>Brew Your Future with Ursus (preinscriere 2022)</t>
+  </si>
+  <si>
+    <t>Ursus Breweries</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Buzau
+Timisoara</t>
+  </si>
+  <si>
+    <t>bTravel Officer with German - Remote job</t>
+  </si>
+  <si>
+    <t>Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>Statistical Forecast Expert for Supply Chain Demand Planning</t>
+  </si>
+  <si>
+    <t>CER Cleaning Equipment</t>
+  </si>
+  <si>
+    <t>Curtea de Arges</t>
+  </si>
+  <si>
+    <t>Tech Recruiter</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>SUSTAINALYTICS</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Timisoara</t>
+  </si>
+  <si>
+    <t>WFM OPERATIONS SPECIALIST- ENGLISH- BRASOV</t>
+  </si>
+  <si>
+    <t>Majorel Romania</t>
+  </si>
+  <si>
+    <t>Brasov
+Sinaia</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer - Metro Signage Package</t>
+  </si>
+  <si>
+    <t>METRO.digital</t>
+  </si>
+  <si>
+    <t>Project Coordinator Engineering Excellence</t>
+  </si>
+  <si>
+    <t>HELLA Romania</t>
+  </si>
+  <si>
+    <t>Timisoara</t>
+  </si>
+  <si>
+    <t>Operator Vânzări Polivalent - Auchan Sibiu</t>
+  </si>
+  <si>
+    <t>Auchan Retail Romania</t>
+  </si>
+  <si>
+    <t>Sibiu</t>
+  </si>
+  <si>
+    <t>Product Management Specialist</t>
+  </si>
+  <si>
+    <t>QUALITY PLANNER</t>
+  </si>
+  <si>
+    <t>Customer Service Representative- ITALIAN- WORK FROM HOME</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Brasov
+Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>Customer Service Representative - ITALIAN - BRASOV</t>
+  </si>
+  <si>
+    <t>Brasov
+Sibiu
+Sinaia</t>
+  </si>
+  <si>
+    <t>FINANCIAL CONTROLLER- English- BRASOV</t>
+  </si>
+  <si>
+    <t>Technical Customer Support - ENGLISH or FRENCH - WORK FROM HOME</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Sibiu
+Job national</t>
+  </si>
+  <si>
+    <t>Operator Vânzări Polivalent - Auchan Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Zalau</t>
+  </si>
+  <si>
+    <t>Partener Clienti Retail_Zona Militari</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>Product Data Engineer</t>
+  </si>
+  <si>
+    <t>ZF Tech Center Timisoara</t>
+  </si>
+  <si>
+    <t>Arad
+Oradea
+Timisoara</t>
+  </si>
+  <si>
+    <t>General - Line Manager</t>
+  </si>
+  <si>
+    <t>Arad
+Iasi
+Timisoara</t>
+  </si>
+  <si>
+    <t>Commercial Graduate Programme 2022 - Romania, Bucharest</t>
+  </si>
+  <si>
+    <t>Cofco International</t>
   </si>
 </sst>
 </file>
@@ -429,10 +884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895C0F1-4C1F-4E83-A918-0B438D6D260C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -454,32 +909,1124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/extractedJobData.xlsx
+++ b/extractedJobData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adriancondrea\Desktop\RPA\Hipo-UI-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A70AC-960B-4708-A3EF-55445612C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F649B-2985-4410-B83C-7888A0ED02F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="230">
   <si>
     <t>15.12.2021</t>
   </si>
@@ -53,34 +53,744 @@
   </si>
   <si>
     <t>Date Published</t>
-  </si>
-  <si>
-    <t>Junior JavaScript Developer (Cluj Hub)</t>
-  </si>
-  <si>
-    <t>/locuri-de-munca/locuri_de_munca/169265/Cognizant-Softvision/Junior-JavaScript-Developer-(Cluj-Hub)</t>
-  </si>
-  <si>
-    <t>Cognizant Softvision</t>
-  </si>
-  <si>
-    <t>Cluj Napoca
-Sibiu
-Targu Mures
-Job national</t>
-  </si>
-  <si>
-    <t>Web Developer-Cluj-Napoca</t>
-  </si>
-  <si>
-    <t>/locuri-de-munca/locuri_de_munca/174032/SalesConsulting/Web-Developer-Cluj-Napoca</t>
-  </si>
-  <si>
-    <t>SalesConsulting</t>
   </si>
   <si>
     <t xml:space="preserve">Cluj Napoca
 </t>
+  </si>
+  <si>
+    <t>TELEMATICS Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176775/Wipro-Center-of-Excellence/TELEMATICS-Engineer</t>
+  </si>
+  <si>
+    <t>Wipro Center of Excellence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timisoara
+Ilfov
+BUCURESTI
+</t>
+  </si>
+  <si>
+    <t>Software Engineer with QNX</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176774/Wipro-Center-of-Excellence/Software-Engineer-with-QNX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Ilfov
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>Software Architect with AUTOSAR</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176773/Wipro-Center-of-Excellence/Software-Architect-with-AUTOSAR-</t>
+  </si>
+  <si>
+    <t>Senior Software Developer with AUTOSAR</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176772/Wipro-Center-of-Excellence/Senior-Software-Developer-with-AUTOSAR</t>
+  </si>
+  <si>
+    <t>Cybersecurity Communication Specialist</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176771/Wipro-Center-of-Excellence/Cybersecurity-Communication-Specialist</t>
+  </si>
+  <si>
+    <t>Network &amp; Diagnosis Software Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176770/Wipro-Center-of-Excellence/Network-&amp;-Diagnosis-Software-Engineer-</t>
+  </si>
+  <si>
+    <t>Junior Software Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176768/Wipro-Center-of-Excellence/Junior-Software-Engineer</t>
+  </si>
+  <si>
+    <t>HIL Specialist with Automation</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176766/Wipro-Center-of-Excellence/HIL-Specialist-with-Automation</t>
+  </si>
+  <si>
+    <t>Requirement Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176764/Wipro-Center-of-Excellence/Requirement-Engineer</t>
+  </si>
+  <si>
+    <t>SW Functional Safety Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176763/Wipro-Center-of-Excellence/SW-Functional-Safety-Engineer</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176646/Ascensos-Contact-Centre/Operations-Manager</t>
+  </si>
+  <si>
+    <t>Ascensos Contact Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+</t>
+  </si>
+  <si>
+    <t>Director economic</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176643/Dr.-Pendl-&amp;-Dr.-Piswanger-Romania/Director-economic</t>
+  </si>
+  <si>
+    <t>Dr. Pendl &amp; Dr. Piswanger Romania</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Popesti Leordeni
+Job national</t>
+  </si>
+  <si>
+    <t>Community Intern</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176505/L'Oreal-Romania/Community-Intern</t>
+  </si>
+  <si>
+    <t>L'Oreal Romania</t>
+  </si>
+  <si>
+    <t>Marketing Intern Skincare</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176499/L'Oreal-Romania/Marketing-Intern-Skincare</t>
+  </si>
+  <si>
+    <t>Asistent manager Customer Support &amp; Marketing</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176421/Bitcoin-Romania/Asistent-manager-Customer-Support-&amp;-Marketing</t>
+  </si>
+  <si>
+    <t>Bitcoin Romania</t>
+  </si>
+  <si>
+    <t>Operations Officer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176329/TARA-Interactive/Operations-Officer</t>
+  </si>
+  <si>
+    <t>TARA Interactive</t>
+  </si>
+  <si>
+    <t>Laboratorul Santomar - Regina Maria Cluj angajeaza registrator medical laborator</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176314/Regina-Maria/Laboratorul-Santomar---Regina-Maria-Cluj-angajeaza-registrator-medical-laborator</t>
+  </si>
+  <si>
+    <t>Regina Maria</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>Asistent Constructii</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176244/PENNY./Asistent-Constructii</t>
+  </si>
+  <si>
+    <t>PENNY.</t>
+  </si>
+  <si>
+    <t>Marketing Intern VICHY</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175875/L'Oreal-Romania/Marketing-Intern-VICHY</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175771/Bitcoin-Romania/Chief-Financial-Officer</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175768/Bitcoin-Romania/Auditor</t>
+  </si>
+  <si>
+    <t>Auditor Junior</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175767/Bitcoin-Romania/Auditor-Junior</t>
+  </si>
+  <si>
+    <t>Rezerva-ti locul la event-ul Continental Technical Show 2021</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/anunt_special/175618/Continental/Rezerva-ti-locul-la-event-ul-Continental-Technical-Show-2021-</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacau
+Botosani
+Braila
+</t>
+  </si>
+  <si>
+    <t>Java Academy</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175505/Playtika/Java-Academy</t>
+  </si>
+  <si>
+    <t>Playtika</t>
+  </si>
+  <si>
+    <t>Sales Planning Analyst with Salesforce with German, Engineering Center Cluj</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175326/Bosch-Romania/Sales-Planning-Analyst-with-Salesforce-with-German,-Engineering-Center-Cluj</t>
+  </si>
+  <si>
+    <t>Bosch Romania</t>
+  </si>
+  <si>
+    <t>Sports analysts wanted</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175210/KAMBI/Sports-analysts-wanted</t>
+  </si>
+  <si>
+    <t>KAMBI</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175178/Veeam-Software/Technical-Support-Engineer</t>
+  </si>
+  <si>
+    <t>Veeam Software</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Job national</t>
+  </si>
+  <si>
+    <t>Senior PMO Analyst</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175176/Allianz-Services/Senior-PMO-Analyst-</t>
+  </si>
+  <si>
+    <t>Allianz Services</t>
+  </si>
+  <si>
+    <t>Manager Trainee McDonald’s Timisoara (5 posturi)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175123/McDonald's-Romania/-Manager-Trainee-McDonald’s-Timisoara-(5-posturi)</t>
+  </si>
+  <si>
+    <t>McDonald's Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resita
+Timisoara
+Lugoj
+</t>
+  </si>
+  <si>
+    <t>Manager Trainee McDonald’s Arad (5 posturi)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175102/McDonald's-Romania/--Manager-Trainee-McDonald’s-Arad-(5-posturi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arad
+Ineu
+Nadlac
+</t>
+  </si>
+  <si>
+    <t>Fii la curent cu noutatile Angajatori de TOP Business 21 martie – 21 aprilie 2022. Inscrie-te acum!</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175022/Inscriere-Angajatori-de-TOP/Fii-la-curent-cu-noutatile-Angajatori-de-TOP-Business-21-martie-–--21-aprilie-2022.-Inscrie-te-acum!</t>
+  </si>
+  <si>
+    <t>Inscriere Angajatori de TOP</t>
+  </si>
+  <si>
+    <t>Job national</t>
+  </si>
+  <si>
+    <t>Fii la curent cu noutatile Angajatori de TOP Tech 28 martie – 1 mai 2022. Inscrie-te acum!</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175021/Inscriere-Angajatori-de-TOP/Fii-la-curent-cu-noutatile-Angajatori-de-TOP-Tech-28-martie-–-1-mai-2022.-Inscrie-te-acum!</t>
+  </si>
+  <si>
+    <t>Direct Sales Representative - Bucuresti</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175003/OTP-Advisors/Direct-Sales-Representative---Bucuresti</t>
+  </si>
+  <si>
+    <t>OTP Advisors</t>
+  </si>
+  <si>
+    <t>Actuarial Specialist Non-life Projects team</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175002/Allianz-Services/Actuarial-Specialist-Non-life-Projects-team</t>
+  </si>
+  <si>
+    <t>Sales Internship (online, full-time flexibil)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174987/Catalyst-Solutions/Sales-Internship-(online,-full-time-flexibil)</t>
+  </si>
+  <si>
+    <t>Catalyst Solutions</t>
+  </si>
+  <si>
+    <t>Inside Sales Associate (Various Languages)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174778/Veeam-Software/Inside-Sales-Associate-(Various-Languages)</t>
+  </si>
+  <si>
+    <t>Reprezentant relatii cu clientii</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174702/Bitcoin-Romania/Reprezentant-relatii-cu-clientii</t>
+  </si>
+  <si>
+    <t>DevOps Senior Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174616/K2View/DevOps-Senior-Engineer</t>
+  </si>
+  <si>
+    <t>K2View</t>
+  </si>
+  <si>
+    <t>DevOps JUNIOR Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174615/K2View/-DevOps-JUNIOR-Engineer</t>
+  </si>
+  <si>
+    <t>Shift Manager Technical Support</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174608/K2View/Shift-Manager-Technical-Support</t>
+  </si>
+  <si>
+    <t>Sales Lab (free online, practical training for students)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174592/Catalyst-Solutions/Sales-Lab-(free-online,-practical-training-for-students)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Brasov
+Cluj Napoca
+</t>
+  </si>
+  <si>
+    <t>Entry Level Sales Support Executive - perioada determinata</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174506/Cargus-S.R.L/Entry-Level-Sales-Support-Executive---perioada-determinata</t>
+  </si>
+  <si>
+    <t>Cargus S.R.L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Ilfov
+Voluntari
+</t>
+  </si>
+  <si>
+    <t>IT Help Desk Consultant 1st level (German) Remote Job</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174443/Bosch-Service-Solutions-SRL/IT-Help-Desk-Consultant-1st-level-(German)-Remote-Job</t>
+  </si>
+  <si>
+    <t>Bosch Service Solutions SRL</t>
+  </si>
+  <si>
+    <t>Brasov
+Sibiu
+Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>Coordonator departament customer support</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174288/Bitcoin-Romania/Coordonator-departament-customer-support</t>
+  </si>
+  <si>
+    <t>Java Software Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174058/K2View/Java-Software-Developer</t>
+  </si>
+  <si>
+    <t>Internship - Financial / Administrative Controller</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174035/Societe-Generale-Global-Solution-Centre/Internship---Financial-/-Administrative-Controller</t>
+  </si>
+  <si>
+    <t>Societe Generale Global Solution Centre</t>
+  </si>
+  <si>
+    <t>Sr. Security Researcher ( Remote, ROU)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174017/CROWDSTRIKE/Sr.-Security-Researcher-(-Remote,-ROU)</t>
+  </si>
+  <si>
+    <t>CROWDSTRIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Brasov
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer Data (Ingestion Team) – Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174016/CROWDSTRIKE/Sr.-Software-Engineer-Data-(Ingestion-Team)-–-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>Threat Researcher Intern - Autumn 2021 (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174014/CROWDSTRIKE/Threat-Researcher-Intern---Autumn-2021-(Remote)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+</t>
+  </si>
+  <si>
+    <t>Sr. Backend Software Engineer, IOT Security | Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174012/CROWDSTRIKE/Sr.-Backend-Software-Engineer,-IOT-Security-|-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (Cloud) – Platform, Europe (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174002/CROWDSTRIKE/Sr.-Software-Engineer-(Cloud)-–-Platform,-Europe-(Remote)</t>
+  </si>
+  <si>
+    <t>Windows Vulnerability Analysis Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174001/CROWDSTRIKE/Windows-Vulnerability-Analysis-Engineer-(Remote)</t>
+  </si>
+  <si>
+    <t>Sr. Intelligence Analyst (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174000/CROWDSTRIKE/Sr.-Intelligence-Analyst-(Remote)</t>
+  </si>
+  <si>
+    <t>Sr. Security Researcher (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173996/CROWDSTRIKE/Sr.-Security-Researcher-(Remote)</t>
+  </si>
+  <si>
+    <t>Security Researcher (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173995/CROWDSTRIKE/Security-Researcher-(Remote)</t>
+  </si>
+  <si>
+    <t>DevOps Database Engineer, Data Services | Romania or Germany (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173994/CROWDSTRIKE/DevOps-Database-Engineer,-Data-Services-|-Romania-or-Germany-(Remote)</t>
+  </si>
+  <si>
+    <t>Sr. DevOps Engineer (Elasticsearch/Cassandra/Kafka)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173993/CROWDSTRIKE/Sr.-DevOps-Engineer-(Elasticsearch/Cassandra/Kafka)</t>
+  </si>
+  <si>
+    <t>Sr. Java Software Engineer, Sandbox | Romania or Ireland (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173985/CROWDSTRIKE/Sr.-Java-Software-Engineer,-Sandbox-|-Romania-or-Ireland-(Remote)</t>
+  </si>
+  <si>
+    <t>Cloud Engineer, Mobile team (Java/Python/Golang), Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173984/CROWDSTRIKE/Cloud-Engineer,-Mobile-team-(Java/Python/Golang),-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>Key Account Manager</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173595/APT-Prohuman/Key-Account-Manager</t>
+  </si>
+  <si>
+    <t>APT Prohuman</t>
+  </si>
+  <si>
+    <t>Brew Your Future with Ursus (preinscriere 2022)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173402/Ursus-Breweries/Brew-Your-Future-with-Ursus-(preinscriere-2022)</t>
+  </si>
+  <si>
+    <t>Ursus Breweries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Buzau
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>bTravel Officer with German - Remote job</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173375/Bosch-Service-Solutions-SRL/bTravel-Officer-with-German---Remote-job</t>
+  </si>
+  <si>
+    <t>Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>Statistical Forecast Expert for Supply Chain Demand Planning</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173349/CER-Cleaning-Equipment/Statistical-Forecast-Expert-for-Supply-Chain-Demand-Planning</t>
+  </si>
+  <si>
+    <t>CER Cleaning Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtea de Arges
+</t>
+  </si>
+  <si>
+    <t>Tech Recruiter</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173279/KAMBI/Tech-Recruiter</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173269/SUSTAINALYTICS/Technical-Lead</t>
+  </si>
+  <si>
+    <t>SUSTAINALYTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>WFM OPERATIONS SPECIALIST- ENGLISH- BRASOV</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173246/Majorel-Romania/WFM-OPERATIONS-SPECIALIST--ENGLISH--BRASOV</t>
+  </si>
+  <si>
+    <t>Majorel Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasov
+Sinaia
+</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer - Metro Signage Package</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173175/METRO.digital/Full-Stack-Engineer---Metro-Signage-Package</t>
+  </si>
+  <si>
+    <t>METRO.digital</t>
+  </si>
+  <si>
+    <t>Project Coordinator Engineering Excellence</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173156/HELLA-Romania/Project-Coordinator-Engineering-Excellence</t>
+  </si>
+  <si>
+    <t>HELLA Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timisoara
+</t>
+  </si>
+  <si>
+    <t>Operator Vânzări Polivalent - Auchan Sibiu</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173155/Auchan-Retail-Romania/Operator-Vânzări-Polivalent---Auchan-Sibiu</t>
+  </si>
+  <si>
+    <t>Auchan Retail Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sibiu
+</t>
+  </si>
+  <si>
+    <t>Product Management Specialist</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173152/HELLA-Romania/Product-Management-Specialist</t>
+  </si>
+  <si>
+    <t>QUALITY PLANNER</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173150/HELLA-Romania/QUALITY-PLANNER</t>
+  </si>
+  <si>
+    <t>Customer Service Representative- ITALIAN- WORK FROM HOME</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172993/Majorel-Romania/Customer-Service-Representative--ITALIAN--WORK-FROM-HOME</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Brasov
+Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>Customer Service Representative - ITALIAN - BRASOV</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172988/Majorel-Romania/Customer-Service-Representative---ITALIAN---BRASOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasov
+Sibiu
+Sinaia
+</t>
+  </si>
+  <si>
+    <t>FINANCIAL CONTROLLER- English- BRASOV</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172987/Majorel-Romania/FINANCIAL-CONTROLLER--English--BRASOV</t>
+  </si>
+  <si>
+    <t>Technical Customer Support - ENGLISH or FRENCH - WORK FROM HOME</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172986/Majorel-Romania/Technical-Customer-Support---ENGLISH-or-FRENCH---WORK-FROM-HOME</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Sibiu
+Job national</t>
+  </si>
+  <si>
+    <t>Operator Vânzări Polivalent - Auchan Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172952/Auchan-Retail-Romania/Operator-Vânzări-Polivalent---Auchan-Cluj-Napoca-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluj Napoca
+Zalau
+</t>
+  </si>
+  <si>
+    <t>Partener Clienti Retail_Zona Militari</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172572/BCR/Partener-Clienti-Retail_Zona-Militari</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>Product Data Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172533/ZF-Tech-Center-Timisoara/Product-Data-Engineer-</t>
+  </si>
+  <si>
+    <t>ZF Tech Center Timisoara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arad
+Oradea
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>General - Line Manager</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172527/ZF-Tech-Center-Timisoara/General---Line-Manager-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arad
+Iasi
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>Commercial Graduate Programme 2022 - Romania, Bucharest</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172427/Cofco-International/Commercial-Graduate-Programme-2022---Romania,-Bucharest</t>
+  </si>
+  <si>
+    <t>Cofco International</t>
   </si>
 </sst>
 </file>
@@ -436,7 +1146,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895C0F1-4C1F-4E83-A918-0B438D6D260C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
@@ -463,35 +1173,1361 @@
     </row>
     <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
         <v>0</v>
       </c>
     </row>

--- a/extractedJobData.xlsx
+++ b/extractedJobData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adriancondrea\Desktop\RPA\Hipo-UI-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE3A7F-A094-4C05-904B-7CD8910544A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942739F9-4014-485E-BD32-F153E9131E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/extractedJobData.xlsx
+++ b/extractedJobData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adriancondrea\Desktop\RPA\Hipo-UI-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942739F9-4014-485E-BD32-F153E9131E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C9003-384A-43BA-9743-2D28C22B4403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="16200" windowHeight="9397" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
+    <workbookView xWindow="4245" yWindow="1920" windowWidth="16200" windowHeight="9398" xr2:uid="{1F074AF2-C6AE-4539-9FF3-A025B3C9FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>15.12.2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="183">
   <si>
     <t>Job Title</t>
   </si>
@@ -81,6 +78,559 @@
   </si>
   <si>
     <t>SalesConsulting</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
+    <t>Sr. Backend Software Engineer, IOT Security | Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174012/CROWDSTRIKE/Sr.-Backend-Software-Engineer,-IOT-Security-|-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>CROWDSTRIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+Timisoara
+</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (Cloud) – Platform, Europe (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174002/CROWDSTRIKE/Sr.-Software-Engineer-(Cloud)-–-Platform,-Europe-(Remote)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Brasov
+Cluj Napoca
+</t>
+  </si>
+  <si>
+    <t>Sr. Java Software Engineer, Sandbox | Romania or Ireland (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173985/CROWDSTRIKE/Sr.-Java-Software-Engineer,-Sandbox-|-Romania-or-Ireland-(Remote)</t>
+  </si>
+  <si>
+    <t>Oracle Application Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171189/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Oracle-Application-Developer</t>
+  </si>
+  <si>
+    <t>IBM Client Innovation Center Central Eastern Europe (CEE)</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>Salesforce Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171158/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Salesforce-Developer</t>
+  </si>
+  <si>
+    <t>Cloud Application Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171136/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Cloud-Application-Engineer</t>
+  </si>
+  <si>
+    <t>Junior Mobile Developer - iOS/Android (Cluj Hub)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/169266/Cognizant-Softvision/Junior-Mobile-Developer---iOS/Android-(Cluj-Hub)-</t>
+  </si>
+  <si>
+    <t>Virtual ECU Software Developer, Engineering Center Cluj</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176672/Bosch-Romania/Virtual-ECU-Software-Developer,-Engineering-Center-Cluj</t>
+  </si>
+  <si>
+    <t>Bosch Romania</t>
+  </si>
+  <si>
+    <t>C++ Automation Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/177224/Dell-Technologies/C++-Automation-Developer</t>
+  </si>
+  <si>
+    <t>Dell Technologies</t>
+  </si>
+  <si>
+    <t>DevOps ELK Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/177223/Dell-Technologies/DevOps-ELK-Engineer</t>
+  </si>
+  <si>
+    <t>Junior Developer - A true entry level opportunity</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176852/SalesConsulting/Junior-Developer---A-true-entry-level-opportunity</t>
+  </si>
+  <si>
+    <t>Junior .NET Developer / Full Stack Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176514/Wirtek/Junior-.NET-Developer-/-Full-Stack-Developer</t>
+  </si>
+  <si>
+    <t>Wirtek</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>INTEGRATION ANALYST, Location: Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176295/SalesConsulting/INTEGRATION-ANALYST,-Location:-Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Job national</t>
+  </si>
+  <si>
+    <t>SENIOR DEVELOPER (KAFKA), Location: Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/176294/SalesConsulting/SENIOR-DEVELOPER-(KAFKA),-Location:-Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Front-end Developer (React.JS)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175759/Evolve-today/Front-end-Developer-(React.JS)</t>
+  </si>
+  <si>
+    <t>Evolve today</t>
+  </si>
+  <si>
+    <t>JavaScript Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/175749/Evolve-today/JavaScript-Developer</t>
+  </si>
+  <si>
+    <t>Python developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174811/Inetum-Romania/Python-developer</t>
+  </si>
+  <si>
+    <t>Inetum Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+Pitesti
+</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174323/InCrys/Android-Developer</t>
+  </si>
+  <si>
+    <t>InCrys</t>
+  </si>
+  <si>
+    <t>Senior iOS Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174321/InCrys/Senior-iOS-Developer</t>
+  </si>
+  <si>
+    <t>Data Base Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174091/Accenture/Data-Base-Developer</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Targu Mures
+Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>Cloud Software Engineer (Go, Kafka, Cassandra), Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/174006/CROWDSTRIKE/Cloud-Software-Engineer-(Go,-Kafka,-Cassandra),-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>.NET / SITECORE DEVELOPER</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173973/Qverse/.NET-/-SITECORE-DEVELOPER</t>
+  </si>
+  <si>
+    <t>Qverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Alt oras
+Cluj Napoca
+</t>
+  </si>
+  <si>
+    <t>FRONTEND DEVELOPER - SHOPIFY</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173972/Qverse/FRONTEND-DEVELOPER---SHOPIFY-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+Alt oras
+</t>
+  </si>
+  <si>
+    <t>Business Systems Analyst (Data streaming)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173938/MassMutual-Romania/Business-Systems-Analyst-(Data-streaming)</t>
+  </si>
+  <si>
+    <t>MassMutual Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+</t>
+  </si>
+  <si>
+    <t>Sr. Backend Engineer (Cloud Solutions) - Platform, Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173868/CROWDSTRIKE/Sr.-Backend-Engineer-(Cloud-Solutions)---Platform,-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCURESTI
+Cluj Napoca
+Iasi
+</t>
+  </si>
+  <si>
+    <t>Sr. Java Software Engineer, Sandbox | Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173863/CROWDSTRIKE/Sr.-Java-Software-Engineer,-Sandbox-|-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>Frontend Developer (Intel), Romania (Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173850/CROWDSTRIKE/Frontend-Developer-(Intel),-Romania-(Remote)</t>
+  </si>
+  <si>
+    <t>Test Automation Engineer/Quality Engineer - MPOS AIR</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173170/METRO.digital/Test-Automation-Engineer/Quality-Engineer---MPOS-AIR</t>
+  </si>
+  <si>
+    <t>METRO.digital</t>
+  </si>
+  <si>
+    <t>Test Automation Engineer /Quality Engineering Core</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173168/METRO.digital/Test-Automation-Engineer-/Quality-Engineering-Core</t>
+  </si>
+  <si>
+    <t>QA Engineer - Identity and Data Management</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/173167/METRO.digital/QA-Engineer---Identity-and-Data-Management</t>
+  </si>
+  <si>
+    <t>C#/.NET Developer, Engineering Center Cluj</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172618/Bosch-Engineering-Center/C#/.NET-Developer,-Engineering-Center-Cluj</t>
+  </si>
+  <si>
+    <t>Bosch Engineering Center</t>
+  </si>
+  <si>
+    <t>Depune-ti CV-ul la Evalueserve la Angajatori de Top TECH</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/172437/Evalueserve/Depune-ti-CV-ul-la-Evalueserve-la-Angajatori-de-Top-TECH</t>
+  </si>
+  <si>
+    <t>Evalueserve</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171972/PitechPlus/Java-Developer</t>
+  </si>
+  <si>
+    <t>PitechPlus</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Iasi
+Job national</t>
+  </si>
+  <si>
+    <t>Ruby Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171964/PitechPlus/Ruby-Developer</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Constanta
+Job national</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171945/PitechPlus/Business-Analyst</t>
+  </si>
+  <si>
+    <t>React Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171944/PitechPlus/React-Developer</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171905/PitechPlus/Technical-Lead</t>
+  </si>
+  <si>
+    <t>.NET developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171775/Accenture/.NET-developer</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Targu Mures
+Job national</t>
+  </si>
+  <si>
+    <t>ETL Developer-Informatica</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171182/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/ETL-Developer-Informatica</t>
+  </si>
+  <si>
+    <t>Hadoop Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171180/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Hadoop-Developer</t>
+  </si>
+  <si>
+    <t>Senior AWS Cloud Architect</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171165/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Senior-AWS-Cloud-Architect</t>
+  </si>
+  <si>
+    <t>Front End Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171163/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Front-End-Developer</t>
+  </si>
+  <si>
+    <t>Application Developer Java</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171161/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Application-Developer-Java</t>
+  </si>
+  <si>
+    <t>Salesforce Consultant</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171159/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Salesforce-Consultant</t>
+  </si>
+  <si>
+    <t>Cloud Developer - C#/.NET</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171156/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Cloud-Developer---C#/.NET</t>
+  </si>
+  <si>
+    <t>Senior Power BI Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171150/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Senior-Power-BI-Developer</t>
+  </si>
+  <si>
+    <t>Qlik Sense Developer-Business Intelligence</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171149/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Qlik-Sense-Developer-Business-Intelligence</t>
+  </si>
+  <si>
+    <t>Java Developer for Adobe Experience Manager</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171145/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Java-Developer-for-Adobe-Experience-Manager</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171143/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Front-End-Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171142/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Java-Developer</t>
+  </si>
+  <si>
+    <t>ServiceNow Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171140/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/ServiceNow-Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171138/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Java-Developer</t>
+  </si>
+  <si>
+    <t>Mobile Tester Specialist</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171135/IBM-Client-Innovation-Center-Central--Eastern-Europe-(CEE)/Mobile-Tester-Specialist</t>
+  </si>
+  <si>
+    <t>Senior Back End Developer (Cloud Contact Center)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/170366/8x8/Senior-Back-End-Developer-(Cloud-Contact-Center)</t>
+  </si>
+  <si>
+    <t>8x8</t>
+  </si>
+  <si>
+    <t>Cluj Napoca
+Iasi
+Timisoara
+Job national</t>
+  </si>
+  <si>
+    <t>.NET Full-Stack Developer (Digital project-Remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/170068/Dell-Technologies/.NET-Full-Stack-Developer-(Digital-project-Remote)</t>
+  </si>
+  <si>
+    <t>Software Developer- Golang- Fully Remote</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/169529/Nordic-Web-Team/Software-Developer--Golang--Fully-Remote</t>
+  </si>
+  <si>
+    <t>Nordic Web Team</t>
+  </si>
+  <si>
+    <t>Software developer for Vue Storefront projects (Onsite or fully remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/169523/Nordic-Web-Team/Software-developer-for-Vue-Storefront-projects-(Onsite-or-fully-remote)</t>
+  </si>
+  <si>
+    <t>Software developer for Frontend projects (Onsite or fully remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/169522/Nordic-Web-Team/Software-developer-for-Frontend-projects-(Onsite-or-fully-remote)</t>
+  </si>
+  <si>
+    <t>Software developer for Reactjs projects (Onsite or fully remote)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/169521/Nordic-Web-Team/-------Software-developer-for-Reactjs-projects-(Onsite-or-fully-remote)</t>
+  </si>
+  <si>
+    <t>BUCURESTI
+Cluj Napoca
+Alt oras
+Job national</t>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/167977/InCrys/Frontend-Developer</t>
+  </si>
+  <si>
+    <t>API Software Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/167314/SalesConsulting/API-Software-Engineer</t>
+  </si>
+  <si>
+    <t>Digital .NET Software Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/166014/Dell-Technologies/Digital-.NET-Software-Engineer</t>
+  </si>
+  <si>
+    <t>Java Software Engineer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/166012/Dell-Technologies/Java-Software-Engineer</t>
+  </si>
+  <si>
+    <t>SALESFORCE DEVELOPER, Location: Bucharest/ Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/159869/SalesConsulting/SALESFORCE-DEVELOPER,-Location:-Bucharest/-Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>CLOUD ENGINEER, Location: Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/159862/SalesConsulting/CLOUD-ENGINEER,-Location:-Bucharest/Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Solutions Architect (.Net)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/152239/MassMutual-Romania/Solutions-Architect-(.Net)</t>
+  </si>
+  <si>
+    <t>Business Systems Analyst (Integration Analyst)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/152238/MassMutual-Romania/Business-Systems-Analyst-(Integration-Analyst)</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171120/Bosch-Romania/C#/.NET-Developer,-Engineering-Center-Cluj</t>
+  </si>
+  <si>
+    <t>21.12.2021</t>
+  </si>
+  <si>
+    <t>.Net Developer</t>
+  </si>
+  <si>
+    <t>/locuri-de-munca/locuri_de_munca/171976/PitechPlus/.Net-Developer</t>
+  </si>
+  <si>
+    <t>20.12.2021</t>
   </si>
 </sst>
 </file>
@@ -436,7 +986,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895C0F1-4C1F-4E83-A918-0B438D6D260C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
@@ -446,53 +996,1719 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
